--- a/TEST streamlit.xlsx
+++ b/TEST streamlit.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyrki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyrki\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE09576-59EB-465C-A146-B4336B76C56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66810C50-28F6-43A7-9272-43DBA64EF0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="anclas">#REF!</definedName>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="79">
   <si>
     <t>Técnico/Funcional</t>
   </si>
@@ -94,9 +93,6 @@
   </si>
   <si>
     <t>ISFJ</t>
-  </si>
-  <si>
-    <t>INFJ</t>
   </si>
   <si>
     <t>INTP</t>
@@ -138,9 +134,6 @@
 Tienen en cuenta las necesidades de los demás. Tienen gran habilidad para conseguir llevar a cabo los objetivos de la organización. Son minuciosos y responsables en los aspectos de detalle y rutina. Son serviciales. Tienen las cosas ordenadas y hacen el trabajo a tiempo.</t>
   </si>
   <si>
-    <t>Los INFJ confían en sus propios puntos de vista, ejercen influencia suavemente, son profundamente compasivos, introspectivos y buscan la armonía. Ofrecen perspectivas de futuro dirigidas a satisfacer las necesidades humanas. Consiguen compromisos. Trabajan con honestidad y constancia. Prefieren trabajos que requieren soledad y concentración. Organizan relaciones complejas entre las personas y tareas.</t>
-  </si>
-  <si>
     <t>Los INTJ son independientes, individualistas y resueltos; confían en su propia visión, sin atender al escepticismo de los demás. Tienen grandes habilidades en tareas de concepción y diseño. Organizan las ideas en forma de planes de acción. Trabajan para eliminar los obstáculos que dificultan el logro de los objetivos. Tienen ideas claras sobre cómo debe ser la organización. Ayudan a la organización a entender los sistemas como conjuntos con interacciones complejas entre sus componentes.</t>
   </si>
   <si>
@@ -292,14 +285,17 @@
     <t>% Sin Orientacion</t>
   </si>
   <si>
-    <t>KAROL FERNANDA VILLARROEL ZEBALLOS</t>
+    <t>KARLA CLAURE ORTIZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -311,6 +307,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -334,10 +335,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -360,42 +364,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Tabulacion Temperamento"/>
-      <sheetName val="Hoja1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="54">
-          <cell r="J54">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="J56">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="J59">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="J62">
-            <v>3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Index"/>
       <sheetName val="Part I"/>
@@ -405,7 +376,19 @@
       <sheetName val="Part V"/>
       <sheetName val="Part VI"/>
       <sheetName val="Part VII"/>
-      <sheetName val="RESULTADO"/>
+      <sheetName val="Anclas_R"/>
+      <sheetName val="ANCL"/>
+      <sheetName val="MBTI 2"/>
+      <sheetName val="TEMPRa"/>
+      <sheetName val="est"/>
+      <sheetName val="INFORME"/>
+      <sheetName val="TEMPERAMENTO"/>
+      <sheetName val="ANCLAS"/>
+      <sheetName val="ESTILO LDZ"/>
+      <sheetName val="BELBIN"/>
+      <sheetName val="MBTI"/>
+      <sheetName val="ASESORES DE VENTAS "/>
+      <sheetName val="MBTI EXTENDIDO"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -416,80 +399,34 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="24">
-          <cell r="C24" t="str">
-            <v>Implementor / Implementador</v>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16">
+        <row r="23">
+          <cell r="E23">
+            <v>0.16666666666666666</v>
           </cell>
-          <cell r="E24">
-            <v>0</v>
+          <cell r="F23">
+            <v>0.33333333333333331</v>
           </cell>
-        </row>
-        <row r="25">
-          <cell r="C25" t="str">
-            <v>Coordinator / Coordinador</v>
+          <cell r="G23">
+            <v>0.25</v>
           </cell>
-          <cell r="E25">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26" t="str">
-            <v>Shaper / Impulsor</v>
-          </cell>
-          <cell r="E26">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27" t="str">
-            <v>Plant / Cerebro</v>
-          </cell>
-          <cell r="E27">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28" t="str">
-            <v>Resource Investigator / Investigador Recursos</v>
-          </cell>
-          <cell r="E28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29" t="str">
-            <v>Monitor Evaluator / Monitor Evaluador</v>
-          </cell>
-          <cell r="E29">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30" t="str">
-            <v>Team Worker / Cohesionador</v>
-          </cell>
-          <cell r="E30">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31" t="str">
-            <v>Complete Finisher / Finalizador</v>
-          </cell>
-          <cell r="E31">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32" t="str">
-            <v>Specialist / Especialista</v>
-          </cell>
-          <cell r="E32">
-            <v>0</v>
+          <cell r="H23">
+            <v>0.25</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -785,8 +722,8 @@
   <sheetPr codeName="Hoja23"/>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -802,63 +739,63 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" t="s">
-        <v>73</v>
-      </c>
       <c r="M1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" t="s">
         <v>76</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>77</v>
-      </c>
-      <c r="O1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -870,22 +807,22 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M2">
         <v>0.41666666666666669</v>
@@ -902,7 +839,7 @@
     </row>
     <row r="3" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -914,28 +851,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
         <v>40</v>
-      </c>
-      <c r="J3" t="s">
-        <v>42</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3">
         <v>0.58333333333333337</v>
@@ -952,7 +889,7 @@
     </row>
     <row r="4" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -964,28 +901,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M4">
         <v>0.5</v>
@@ -1002,13 +939,13 @@
     </row>
     <row r="5" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1020,22 +957,22 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M5">
         <v>0.5</v>
@@ -1052,40 +989,40 @@
     </row>
     <row r="6" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
         <v>40</v>
-      </c>
-      <c r="J6" t="s">
-        <v>42</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M6">
         <v>0.33333333333333331</v>
@@ -1102,7 +1039,7 @@
     </row>
     <row r="7" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1114,28 +1051,28 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7">
         <v>0.16666666666666666</v>
@@ -1152,19 +1089,19 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -1176,16 +1113,16 @@
         <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M8">
         <v>0.25</v>
@@ -1202,19 +1139,19 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
@@ -1226,16 +1163,16 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M9">
         <v>0.16666666666666666</v>
@@ -1252,7 +1189,7 @@
     </row>
     <row r="10" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1264,28 +1201,28 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M10">
         <v>0.25</v>
@@ -1302,13 +1239,13 @@
     </row>
     <row r="11" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -1320,22 +1257,22 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M11">
         <v>0.25</v>
@@ -1352,7 +1289,7 @@
     </row>
     <row r="12" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1364,7 +1301,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
@@ -1376,16 +1313,16 @@
         <v>12</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M12">
         <v>0.25</v>
@@ -1402,13 +1339,13 @@
     </row>
     <row r="13" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -1420,22 +1357,22 @@
         <v>4</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K13" t="s">
         <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M13">
         <v>0.41666666666666669</v>
@@ -1452,7 +1389,7 @@
     </row>
     <row r="14" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1464,28 +1401,28 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M14">
         <v>0.25</v>
@@ -1502,40 +1439,40 @@
     </row>
     <row r="15" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
         <v>11</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K15" t="s">
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M15">
         <v>0.5</v>
@@ -1552,19 +1489,19 @@
     </row>
     <row r="16" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
@@ -1576,16 +1513,16 @@
         <v>12</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" t="s">
         <v>40</v>
-      </c>
-      <c r="J16" t="s">
-        <v>42</v>
       </c>
       <c r="K16" t="s">
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M16">
         <v>0.41666666666666669</v>
@@ -1600,53 +1537,57 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="H17" t="s">
         <v>11</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17">
+        <v>27</v>
+      </c>
+      <c r="M17" s="2">
+        <f>+'[1]ESTILO LDZ'!$E$23</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="2">
+        <f>+'[1]ESTILO LDZ'!$F$23</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O17">
-        <v>0.25</v>
-      </c>
-      <c r="P17">
+      <c r="O17" s="2">
+        <f>+'[1]ESTILO LDZ'!$G$23</f>
+        <v>0.25</v>
+      </c>
+      <c r="P17" s="2">
+        <f>+'[1]ESTILO LDZ'!$H$23</f>
         <v>0.25</v>
       </c>
     </row>
